--- a/Closeness table.xlsx
+++ b/Closeness table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="19">
   <si>
     <t>a</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>Eigenvalue</t>
+  </si>
+  <si>
+    <t>Eigenvector</t>
+  </si>
+  <si>
+    <t>Gephi</t>
   </si>
 </sst>
 </file>
@@ -135,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -158,15 +167,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -186,12 +236,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,24 +530,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.83203125" style="1"/>
     <col min="16" max="16" width="2.6640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="5.6640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.5" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="19" max="19" width="10.83203125" style="1"/>
+    <col min="20" max="20" width="2.6640625" style="1" customWidth="1"/>
+    <col min="21" max="32" width="2.1640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="2.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.83203125" style="1"/>
+    <col min="35" max="35" width="9.83203125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.6640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="5.83203125" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -532,8 +605,58 @@
       <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,8 +709,62 @@
         <f>Q2/66</f>
         <v>0</v>
       </c>
+      <c r="T2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>2.7320000000000002</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>0.219</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>0.59199999999999997</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -640,8 +817,60 @@
         <f t="shared" ref="R3:R14" si="0">Q3/66</f>
         <v>7.575757575757576E-2</v>
       </c>
+      <c r="T3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>0.83799999999999997</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -694,8 +923,60 @@
         <f t="shared" si="0"/>
         <v>7.575757575757576E-2</v>
       </c>
+      <c r="T4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>0.83799999999999997</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -748,8 +1029,60 @@
         <f t="shared" si="0"/>
         <v>0.40909090909090912</v>
       </c>
+      <c r="T5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>0.94499999999999995</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -802,8 +1135,60 @@
         <f t="shared" si="0"/>
         <v>0.72727272727272729</v>
       </c>
+      <c r="T6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>0.219</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -856,8 +1241,60 @@
         <f t="shared" si="0"/>
         <v>0.40909090909090912</v>
       </c>
+      <c r="T7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>0.94499999999999995</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -910,8 +1347,60 @@
         <f t="shared" si="0"/>
         <v>7.575757575757576E-2</v>
       </c>
+      <c r="T8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>0.83799999999999997</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -964,8 +1453,60 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="T9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>0.219</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>0.59199999999999997</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1018,8 +1559,60 @@
         <f t="shared" si="0"/>
         <v>7.575757575757576E-2</v>
       </c>
+      <c r="T10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>0.83799999999999997</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1072,8 +1665,60 @@
         <f t="shared" si="0"/>
         <v>0.40909090909090912</v>
       </c>
+      <c r="T11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>0.94499999999999995</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1771,60 @@
         <f t="shared" si="0"/>
         <v>7.575757575757576E-2</v>
       </c>
+      <c r="T12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>0.83799999999999997</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1180,8 +1877,60 @@
         <f t="shared" si="0"/>
         <v>7.575757575757576E-2</v>
       </c>
+      <c r="T13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK13" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AL13" s="5">
+        <v>0.83799999999999997</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1234,8 +1983,60 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="T14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>0.219</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>0.59199999999999997</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -1292,61 +2093,61 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <f>1/B15</f>
-        <v>2.1276595744680851E-2</v>
+        <f>SUM(B2:B14)/12</f>
+        <v>3.9166666666666665</v>
       </c>
       <c r="C16" s="5">
-        <f>1/C15</f>
-        <v>2.7027027027027029E-2</v>
+        <f t="shared" ref="C16:N16" si="2">SUM(C2:C14)/12</f>
+        <v>3.0833333333333335</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" ref="D16:N16" si="2">1/D15</f>
-        <v>2.7027027027027029E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.0833333333333335</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="2"/>
-        <v>3.4482758620689655E-2</v>
+        <v>2.4166666666666665</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v>2</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="2"/>
-        <v>3.4482758620689655E-2</v>
+        <v>2.4166666666666665</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="2"/>
-        <v>2.7027027027027029E-2</v>
+        <v>3.0833333333333335</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="2"/>
-        <v>2.1276595744680851E-2</v>
+        <v>3.9166666666666665</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" si="2"/>
-        <v>2.7027027027027029E-2</v>
+        <v>3.0833333333333335</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" si="2"/>
-        <v>3.4482758620689655E-2</v>
+        <v>2.4166666666666665</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="2"/>
-        <v>2.7027027027027029E-2</v>
+        <v>3.0833333333333335</v>
       </c>
       <c r="M16" s="5">
         <f t="shared" si="2"/>
-        <v>2.7027027027027029E-2</v>
+        <v>3.0833333333333335</v>
       </c>
       <c r="N16" s="5">
         <f t="shared" si="2"/>
-        <v>2.1276595744680851E-2</v>
+        <v>3.9166666666666665</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1354,20 +2155,20 @@
         <v>13</v>
       </c>
       <c r="B17" s="5">
-        <f>12*B16</f>
-        <v>0.25531914893617019</v>
+        <f>1/B16</f>
+        <v>0.25531914893617025</v>
       </c>
       <c r="C17" s="5">
-        <f>12*C16</f>
-        <v>0.32432432432432434</v>
+        <f t="shared" ref="C17:N17" si="3">1/C16</f>
+        <v>0.32432432432432429</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" ref="D17:N17" si="3">12*D16</f>
-        <v>0.32432432432432434</v>
+        <f t="shared" si="3"/>
+        <v>0.32432432432432429</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="3"/>
-        <v>0.41379310344827586</v>
+        <v>0.41379310344827591</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="3"/>
@@ -1375,38 +2176,41 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" si="3"/>
-        <v>0.41379310344827586</v>
+        <v>0.41379310344827591</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="3"/>
-        <v>0.32432432432432434</v>
+        <v>0.32432432432432429</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="3"/>
-        <v>0.25531914893617019</v>
+        <v>0.25531914893617025</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" si="3"/>
-        <v>0.32432432432432434</v>
+        <v>0.32432432432432429</v>
       </c>
       <c r="K17" s="5">
         <f t="shared" si="3"/>
-        <v>0.41379310344827586</v>
+        <v>0.41379310344827591</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" si="3"/>
-        <v>0.32432432432432434</v>
+        <v>0.32432432432432429</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" si="3"/>
-        <v>0.32432432432432434</v>
+        <v>0.32432432432432429</v>
       </c>
       <c r="N17" s="5">
         <f t="shared" si="3"/>
-        <v>0.25531914893617019</v>
+        <v>0.25531914893617025</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AI2:AI14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Closeness table.xlsx
+++ b/Closeness table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37120" yWindow="-16620" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="10380" yWindow="0" windowWidth="15220" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,8 +205,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -246,15 +248,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:AL14"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2:AK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="5">
-        <v>0.219</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="AL2" s="5">
         <v>0.59199999999999997</v>
@@ -864,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="AK3" s="5">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AL3" s="5">
         <v>0.83799999999999997</v>
@@ -970,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="AK4" s="5">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AL4" s="5">
         <v>0.83799999999999997</v>
@@ -1076,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="AK5" s="5">
-        <v>0.3</v>
+        <v>0.316</v>
       </c>
       <c r="AL5" s="5">
         <v>0.94499999999999995</v>
@@ -1148,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="2">
         <v>0</v>
@@ -1182,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="AK6" s="5">
-        <v>0.219</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="AL6" s="5">
         <v>1</v>
@@ -1288,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="AK7" s="5">
-        <v>0.3</v>
+        <v>0.316</v>
       </c>
       <c r="AL7" s="5">
         <v>0.94499999999999995</v>
@@ -1394,7 +1398,7 @@
         <v>6</v>
       </c>
       <c r="AK8" s="5">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AL8" s="5">
         <v>0.83799999999999997</v>
@@ -1500,7 +1504,7 @@
         <v>7</v>
       </c>
       <c r="AK9" s="5">
-        <v>0.219</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="AL9" s="5">
         <v>0.59199999999999997</v>
@@ -1606,7 +1610,7 @@
         <v>8</v>
       </c>
       <c r="AK10" s="5">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AL10" s="5">
         <v>0.83799999999999997</v>
@@ -1712,7 +1716,7 @@
         <v>9</v>
       </c>
       <c r="AK11" s="5">
-        <v>0.3</v>
+        <v>0.316</v>
       </c>
       <c r="AL11" s="5">
         <v>0.94499999999999995</v>
@@ -1818,7 +1822,7 @@
         <v>10</v>
       </c>
       <c r="AK12" s="5">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AL12" s="5">
         <v>0.83799999999999997</v>
@@ -1924,7 +1928,7 @@
         <v>11</v>
       </c>
       <c r="AK13" s="5">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AL13" s="5">
         <v>0.83799999999999997</v>
@@ -2030,7 +2034,7 @@
         <v>12</v>
       </c>
       <c r="AK14" s="5">
-        <v>0.219</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="AL14" s="5">
         <v>0.59199999999999997</v>
